--- a/Customers.xlsx
+++ b/Customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Projects\Mobile Banking App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9B13F9-AFD0-4432-B529-BB71393D6111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C971EF-BB78-4C24-B865-2EB0380F2D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1B25E05E-0A38-408A-BD5F-74B7460FC059}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -46,28 +46,34 @@
     <t>Balance</t>
   </si>
   <si>
+    <t>Sample1</t>
+  </si>
+  <si>
+    <t>sample1@gmail.com</t>
+  </si>
+  <si>
+    <t>Sample2</t>
+  </si>
+  <si>
+    <t>sample2@gmail.com</t>
+  </si>
+  <si>
     <t>OwnerName</t>
   </si>
   <si>
-    <t>Sample1</t>
-  </si>
-  <si>
-    <t>sample1@abc.com</t>
-  </si>
-  <si>
-    <t>Sample2</t>
-  </si>
-  <si>
-    <t>sample2@abc.com</t>
-  </si>
-  <si>
     <t>ABC company</t>
   </si>
   <si>
     <t>ABC</t>
   </si>
   <si>
-    <t>sample1@gmail.com</t>
+    <t>DEF company</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>def@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -110,11 +116,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -437,6 +444,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -460,39 +470,39 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>2002</v>
+        <v>1615</v>
       </c>
       <c r="E3">
-        <v>12345</v>
+        <v>100136144</v>
       </c>
       <c r="F3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>2001</v>
+        <v>9766</v>
       </c>
       <c r="E4">
-        <v>4446</v>
+        <v>100195188</v>
       </c>
       <c r="F4">
         <v>1500</v>
@@ -500,8 +510,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{91BA35E6-EF58-41C8-93C8-20170CFDCF65}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{95CF0F21-C979-4ECD-A4F8-4954F0A6377B}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -509,20 +518,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637AFE45-10D9-403E-ACA4-C4B04C259C24}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -545,21 +557,41 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>2005</v>
       </c>
       <c r="E3">
-        <v>124565</v>
+        <v>900113678</v>
       </c>
       <c r="F3">
         <v>21121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>2348</v>
+      </c>
+      <c r="E4">
+        <v>900141676</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{D318A72C-0B6C-4F7E-A402-73FB745ACAFF}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Customers.xlsx
+++ b/Customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Projects\Mobile Banking App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C971EF-BB78-4C24-B865-2EB0380F2D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B328E1B-2748-4480-BA0F-339C32B82A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1B25E05E-0A38-408A-BD5F-74B7460FC059}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>OwnerName</t>
+  </si>
+  <si>
+    <t>Overdraft</t>
   </si>
   <si>
     <t>ABC company</t>
@@ -440,7 +443,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,10 +521,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637AFE45-10D9-403E-ACA4-C4B04C259C24}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,7 +532,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,13 +551,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -568,16 +574,19 @@
       <c r="F3">
         <v>21121</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>2348</v>
@@ -587,6 +596,9 @@
       </c>
       <c r="F4">
         <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>

--- a/Customers.xlsx
+++ b/Customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Projects\Mobile Banking App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B328E1B-2748-4480-BA0F-339C32B82A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A58934-FA78-45C1-BA3E-AD822BE75018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1B25E05E-0A38-408A-BD5F-74B7460FC059}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -83,7 +83,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,10 +122,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -443,79 +444,80 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>1615</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>100136144</v>
       </c>
-      <c r="F3">
-        <v>1500</v>
+      <c r="F3" s="0">
+        <v>2300</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>9766</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>100195188</v>
       </c>
-      <c r="F4">
-        <v>1500</v>
+      <c r="F4" s="0">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -524,87 +526,88 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>2005</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>900113678</v>
       </c>
-      <c r="F3">
-        <v>21121</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="0">
+        <v>-4000</v>
+      </c>
+      <c r="G3" s="0">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0">
+        <v>2348</v>
+      </c>
+      <c r="E4" s="0">
+        <v>900141676</v>
+      </c>
+      <c r="F4" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>2348</v>
-      </c>
-      <c r="E4">
-        <v>900141676</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>1500</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Customers.xlsx
+++ b/Customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Projects\Mobile Banking App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A58934-FA78-45C1-BA3E-AD822BE75018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E60C24-E42E-45EC-A312-96C7646F398E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1B25E05E-0A38-408A-BD5F-74B7460FC059}"/>
   </bookViews>
@@ -489,7 +489,7 @@
         <v>100136144</v>
       </c>
       <c r="F3" s="0">
-        <v>2300</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="4">
@@ -526,7 +526,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,10 +574,10 @@
         <v>900113678</v>
       </c>
       <c r="F3" s="0">
-        <v>-4000</v>
+        <v>2000</v>
       </c>
       <c r="G3" s="0">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
